--- a/tag sampling/validation.xlsx
+++ b/tag sampling/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.A. Ruben\Desktop\thesis SEC\1 - SE data\gis.SE.thesis\tag sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1FDEF-3339-4B30-9B46-7F7FDFF87558}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C0B3B-92BF-409C-8116-70F788B3B2FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{22D07FB6-9226-4B26-8781-843D6139DA11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D07FB6-9226-4B26-8781-843D6139DA11}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="2" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C03BC4-7946-458B-B014-53220709E0F6}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41378847-DC69-42A6-860A-49B4D6E03F07}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tag sampling/validation.xlsx
+++ b/tag sampling/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.A. Ruben\Desktop\thesis SEC\1 - SE data\gis.SE.thesis\tag sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C0B3B-92BF-409C-8116-70F788B3B2FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459AFF9-4627-4D5E-A545-1302EFC6334C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D07FB6-9226-4B26-8781-843D6139DA11}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{22D07FB6-9226-4B26-8781-843D6139DA11}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="20">
   <si>
     <t>answer id</t>
   </si>
@@ -94,22 +94,7 @@
     <t>no discussion</t>
   </si>
   <si>
-    <t>discussion probably deleted</t>
-  </si>
-  <si>
-    <t>no discussion, aborted by author refering to rules</t>
-  </si>
-  <si>
     <t>partially exploratory</t>
-  </si>
-  <si>
-    <t>no real discussion arose</t>
-  </si>
-  <si>
-    <t>no discussion arose</t>
-  </si>
-  <si>
-    <t>no discussion (asking to mark answer)</t>
   </si>
   <si>
     <t>on question formulation</t>
@@ -119,6 +104,9 @@
   </si>
   <si>
     <t>minimal</t>
+  </si>
+  <si>
+    <t>full discussion probably deleted</t>
   </si>
 </sst>
 </file>
@@ -638,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C03BC4-7946-458B-B014-53220709E0F6}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,11 +1011,14 @@
       <c r="A23">
         <v>341292</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,11 +1047,14 @@
       <c r="A26">
         <v>133563</v>
       </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1101,11 +1095,14 @@
       <c r="A29">
         <v>131789</v>
       </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1139,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1269,6 +1266,9 @@
       <c r="A41">
         <v>312807</v>
       </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1322,11 +1322,14 @@
       <c r="A45">
         <v>240235</v>
       </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1375,11 +1378,14 @@
       <c r="A49">
         <v>91963</v>
       </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
       <c r="G49" t="s">
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1436,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41378847-DC69-42A6-860A-49B4D6E03F07}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1599,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1616,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1881,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2094,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2111,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2128,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2159,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2238,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2255,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
